--- a/biology/Botanique/Florent_Martin/Florent_Martin.xlsx
+++ b/biology/Botanique/Florent_Martin/Florent_Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florent Martin, né le 22 septembre 1987 à Paris, est un sommelier français. En 2021, il obtient, fin mai, le titre de meilleur sommelier de France pour l'édition 2020 et rejoint, en juin, l'hôtel 5 étoiles The Peninsula de Paris en tant que chef sommelier. L'année suivante, il devient meilleur ouvrier de France dans sa spécialité.
 </t>
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine et formation
-Né à Paris en 1987 dans une famille de boulangers, Florent Martin grandit à Melun (Seine-et-Marne) pendant une dizaine d'années, puis avec sa mère, d'origine corse, et son frère, ils partent s'installer sur l'Ile de Beauté[1]. C’est au lycée professionnel Finosello d’Ajaccio, qu’il acquiert les bases de son métier en commençant par y obtenir un BEP « Production de services »[2]. Au cours de ses études, il remporte brillamment en 2004 la coupe Georges Baptiste à l’échelle nationale, puis en 2005 il s'illustre à nouveau en remportant le titre au niveau européen[3],[4]. Il obtient l'année suivante un Bac Pro « Restauration » (approfondissement « service et commercialisation ») avec à la clé une mention « Très Bien » et un premier prix au concours général dans sa spécialité.
-Carrière
-Florent Martin fait ses premiers pas au restaurant du Grand Hôtel Cala Rossa près de Porto-Vecchio avec Patrick Fioramonti, directeur de la restauration et chef sommelier de l'établissement. Des stages hors de la Corse lui permettent d'acquérir une solide formation et d'effectuer ses premiers contacts avec la gastronomie étoilée tels qu'à Monaco au Louis XV ou en Alsace, à L’Auberge de l’Ill, aux côtés de Serge Dubs, meilleur sommelier du monde[5],[1].
-À 18 ans, il part à Londres et rejoint l'hôtel Claridge's pour une année auprès du chef Gordon Ramsay, deux étoiles au guide Michelin. Il retrouve ensuite pendant deux ans la principauté monégasque avec un poste de premier commis sommelier au restaurant Le Louis XV (en) d'Alain Ducasse au sein de l’Hôtel de Paris Monte-Carlo[2].
-Florent Martin part à Paris en septembre 2009 pour intégrer l'équipe d'Éric Beaumard, vice-meilleur sommelier du monde et chef sommelier, à l'époque, du restaurant Le Cinq de l'hôtel Four Seasons George V. Il y officie durant près de douze années et y gravie les échelons en occupant notamment les postes de second sommelier puis de premier sommelier[5].
-En juin 2021, il prend de nouvelles responsabilités en accédant au poste de chef sommelier du palace parisien The Peninsula où il est associé au chef étoilé David Bizet[6],[7].
-Concours de sommellerie
-Depuis la fin de ses études, Florent Martin a la passion des concours de sommellerie. Dès 2010, il parvient jusqu'en demi-finale du concours de meilleur sommelier de France[8]. L'année suivante, il connaît sa première finale d'un concours en atteignant celle du meilleur jeune sommelier de France[9]. Il enchaine ensuite cinq finales consécutives, dont trois pour le titre de meilleur sommelier de France à Marseille en 2012 puis à Beaune en 2014 et à Toulouse en 2016, et deux, en 2015 et 2018, pour celui de meilleur ouvrier de France dans la catégorie sommellerie[10]. En 2021, il connait la consécration en remportant le 31 mai à Paris le 31e concours du meilleur sommelier de France[6],[11],[12]. Il participe à nouveau en 2021 au concours de meilleur ouvrier de France[2] et décroche enfin ce titre en 2022[13].
-Autres activités
-Il est membre de l'Association des Sommeliers de Paris[14] et de la commission jeunesse de l’Union de la Sommellerie Française (UDSF)[15],[16] ainsi que de sa Team France, qui a vocation à préparer et à entrainer collectivement les futurs candidats français aux compétitions internationales de sommellerie[17]. Il fait partie également du comité de dégustation vins et champagnes du Gault&amp;Millau[18]. Il rejoint en janvier 2020 le bailliage français de la Chaîne des rôtisseurs en tant qu'échanson national[19].
-Fort de son expérience et de ses rencontres, il développe un système pédagogique qu'il nomme « l’écriture gustative » qui permet de dynamiser les sens et de développer la mémoire des goûts. Avec son épouse Alexia, il crée des modèles originaux d'assiettes et de plateaux en céramique dans l'objectif d'améliorer l'expérience de dégustation du vin et des boissons.
+          <t>Origine et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Paris en 1987 dans une famille de boulangers, Florent Martin grandit à Melun (Seine-et-Marne) pendant une dizaine d'années, puis avec sa mère, d'origine corse, et son frère, ils partent s'installer sur l'Ile de Beauté. C’est au lycée professionnel Finosello d’Ajaccio, qu’il acquiert les bases de son métier en commençant par y obtenir un BEP « Production de services ». Au cours de ses études, il remporte brillamment en 2004 la coupe Georges Baptiste à l’échelle nationale, puis en 2005 il s'illustre à nouveau en remportant le titre au niveau européen,. Il obtient l'année suivante un Bac Pro « Restauration » (approfondissement « service et commercialisation ») avec à la clé une mention « Très Bien » et un premier prix au concours général dans sa spécialité.
 </t>
         </is>
       </c>
@@ -550,13 +557,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florent Martin fait ses premiers pas au restaurant du Grand Hôtel Cala Rossa près de Porto-Vecchio avec Patrick Fioramonti, directeur de la restauration et chef sommelier de l'établissement. Des stages hors de la Corse lui permettent d'acquérir une solide formation et d'effectuer ses premiers contacts avec la gastronomie étoilée tels qu'à Monaco au Louis XV ou en Alsace, à L’Auberge de l’Ill, aux côtés de Serge Dubs, meilleur sommelier du monde,.
+À 18 ans, il part à Londres et rejoint l'hôtel Claridge's pour une année auprès du chef Gordon Ramsay, deux étoiles au guide Michelin. Il retrouve ensuite pendant deux ans la principauté monégasque avec un poste de premier commis sommelier au restaurant Le Louis XV (en) d'Alain Ducasse au sein de l’Hôtel de Paris Monte-Carlo.
+Florent Martin part à Paris en septembre 2009 pour intégrer l'équipe d'Éric Beaumard, vice-meilleur sommelier du monde et chef sommelier, à l'époque, du restaurant Le Cinq de l'hôtel Four Seasons George V. Il y officie durant près de douze années et y gravie les échelons en occupant notamment les postes de second sommelier puis de premier sommelier.
+En juin 2021, il prend de nouvelles responsabilités en accédant au poste de chef sommelier du palace parisien The Peninsula où il est associé au chef étoilé David Bizet,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florent_Martin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florent_Martin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Concours de sommellerie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la fin de ses études, Florent Martin a la passion des concours de sommellerie. Dès 2010, il parvient jusqu'en demi-finale du concours de meilleur sommelier de France. L'année suivante, il connaît sa première finale d'un concours en atteignant celle du meilleur jeune sommelier de France. Il enchaine ensuite cinq finales consécutives, dont trois pour le titre de meilleur sommelier de France à Marseille en 2012 puis à Beaune en 2014 et à Toulouse en 2016, et deux, en 2015 et 2018, pour celui de meilleur ouvrier de France dans la catégorie sommellerie. En 2021, il connait la consécration en remportant le 31 mai à Paris le 31e concours du meilleur sommelier de France. Il participe à nouveau en 2021 au concours de meilleur ouvrier de France et décroche enfin ce titre en 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florent_Martin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florent_Martin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est membre de l'Association des Sommeliers de Paris et de la commission jeunesse de l’Union de la Sommellerie Française (UDSF), ainsi que de sa Team France, qui a vocation à préparer et à entrainer collectivement les futurs candidats français aux compétitions internationales de sommellerie. Il fait partie également du comité de dégustation vins et champagnes du Gault&amp;Millau. Il rejoint en janvier 2020 le bailliage français de la Chaîne des rôtisseurs en tant qu'échanson national.
+Fort de son expérience et de ses rencontres, il développe un système pédagogique qu'il nomme « l’écriture gustative » qui permet de dynamiser les sens et de développer la mémoire des goûts. Avec son épouse Alexia, il crée des modèles originaux d'assiettes et de plateaux en céramique dans l'objectif d'améliorer l'expérience de dégustation du vin et des boissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florent_Martin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florent_Martin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2004 : Vainqueur de la coupe Georges Baptiste nationale en catégorie élève[20],[21].
-2005 : Vainqueur de la coupe Georges Baptiste européenne en catégorie élève[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2004 : Vainqueur de la coupe Georges Baptiste nationale en catégorie élève,.
+2005 : Vainqueur de la coupe Georges Baptiste européenne en catégorie élève.
 2010 : Demi-finaliste du concours du meilleur sommelier de France.
 2011 : Finaliste du concours du meilleur jeune sommelier de France.
 2012 : Finaliste du concours du meilleur sommelier de France.
@@ -570,33 +694,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Florent_Martin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Florent_Martin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 : Sensations (documentaire de 33 minutes) de Florent Martin et Florent Aceto pour l'Union de la Sommellerie Française[22],[23],[15].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2020 : Sensations (documentaire de 33 minutes) de Florent Martin et Florent Aceto pour l'Union de la Sommellerie Française.</t>
         </is>
       </c>
     </row>
